--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Pthlh</t>
+  </si>
+  <si>
+    <t>Pth2r</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Pthlh</t>
-  </si>
-  <si>
-    <t>Pth2r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H2">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I2">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.223269</v>
+        <v>0.01914266666666667</v>
       </c>
       <c r="N2">
-        <v>0.669807</v>
+        <v>0.057428</v>
       </c>
       <c r="O2">
-        <v>0.3449810875288941</v>
+        <v>0.04458093394215377</v>
       </c>
       <c r="P2">
-        <v>0.3449810875288941</v>
+        <v>0.04458093394215377</v>
       </c>
       <c r="Q2">
-        <v>0.068912795503</v>
+        <v>0.02322568899155555</v>
       </c>
       <c r="R2">
-        <v>0.620215159527</v>
+        <v>0.209031200924</v>
       </c>
       <c r="S2">
-        <v>0.0699627566752921</v>
+        <v>0.04458093394215377</v>
       </c>
       <c r="T2">
-        <v>0.06996275667529207</v>
+        <v>0.04458093394215377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H3">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I3">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.390429</v>
       </c>
       <c r="O3">
-        <v>0.2010887031978145</v>
+        <v>0.3030871605854489</v>
       </c>
       <c r="P3">
-        <v>0.2010887031978146</v>
+        <v>0.3030871605854488</v>
       </c>
       <c r="Q3">
-        <v>0.040169114141</v>
+        <v>0.157901764423</v>
       </c>
       <c r="R3">
-        <v>0.361522027269</v>
+        <v>1.421115879807</v>
       </c>
       <c r="S3">
-        <v>0.04078113415652211</v>
+        <v>0.3030871605854489</v>
       </c>
       <c r="T3">
-        <v>0.04078113415652211</v>
+        <v>0.3030871605854488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H4">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I4">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.042025</v>
+        <v>0.05663099999999999</v>
       </c>
       <c r="N4">
-        <v>0.126075</v>
+        <v>0.169893</v>
       </c>
       <c r="O4">
-        <v>0.06493436260027936</v>
+        <v>0.131886686115385</v>
       </c>
       <c r="P4">
-        <v>0.06493436260027936</v>
+        <v>0.131886686115385</v>
       </c>
       <c r="Q4">
-        <v>0.01297117034166667</v>
+        <v>0.06871007139099999</v>
       </c>
       <c r="R4">
-        <v>0.116740533075</v>
+        <v>0.6183906425189999</v>
       </c>
       <c r="S4">
-        <v>0.0131688001884684</v>
+        <v>0.131886686115385</v>
       </c>
       <c r="T4">
-        <v>0.01316880018846839</v>
+        <v>0.131886686115385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H5">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I5">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1823753333333333</v>
+        <v>0.06980833333333333</v>
       </c>
       <c r="N5">
-        <v>0.547126</v>
+        <v>0.209425</v>
       </c>
       <c r="O5">
-        <v>0.2817947893875903</v>
+        <v>0.1625750869059615</v>
       </c>
       <c r="P5">
-        <v>0.2817947893875903</v>
+        <v>0.1625750869059615</v>
       </c>
       <c r="Q5">
-        <v>0.05629081534288888</v>
+        <v>0.08469805525277777</v>
       </c>
       <c r="R5">
-        <v>0.5066173380860001</v>
+        <v>0.762282497275</v>
       </c>
       <c r="S5">
-        <v>0.05714846695947617</v>
+        <v>0.1625750869059615</v>
       </c>
       <c r="T5">
-        <v>0.05714846695947616</v>
+        <v>0.1625750869059615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,356 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H6">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I6">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06937966666666666</v>
+        <v>0.1536663333333333</v>
       </c>
       <c r="N6">
-        <v>0.208139</v>
+        <v>0.460999</v>
       </c>
       <c r="O6">
-        <v>0.1072010572854217</v>
+        <v>0.3578701324510509</v>
       </c>
       <c r="P6">
-        <v>0.1072010572854217</v>
+        <v>0.3578701324510509</v>
       </c>
       <c r="Q6">
-        <v>0.02141428850877777</v>
+        <v>0.1864424914574445</v>
       </c>
       <c r="R6">
-        <v>0.192728596579</v>
+        <v>1.677982423117</v>
       </c>
       <c r="S6">
-        <v>0.02174055841703449</v>
+        <v>0.3578701324510509</v>
       </c>
       <c r="T6">
-        <v>0.02174055841703448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H7">
-        <v>3.639883</v>
-      </c>
-      <c r="I7">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J7">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.223269</v>
-      </c>
-      <c r="N7">
-        <v>0.669807</v>
-      </c>
-      <c r="O7">
-        <v>0.3449810875288941</v>
-      </c>
-      <c r="P7">
-        <v>0.3449810875288941</v>
-      </c>
-      <c r="Q7">
-        <v>0.270891012509</v>
-      </c>
-      <c r="R7">
-        <v>2.438019112581</v>
-      </c>
-      <c r="S7">
-        <v>0.2750183308536021</v>
-      </c>
-      <c r="T7">
-        <v>0.2750183308536019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H8">
-        <v>3.639883</v>
-      </c>
-      <c r="I8">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J8">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.130143</v>
-      </c>
-      <c r="N8">
-        <v>0.390429</v>
-      </c>
-      <c r="O8">
-        <v>0.2010887031978145</v>
-      </c>
-      <c r="P8">
-        <v>0.2010887031978146</v>
-      </c>
-      <c r="Q8">
-        <v>0.157901764423</v>
-      </c>
-      <c r="R8">
-        <v>1.421115879807</v>
-      </c>
-      <c r="S8">
-        <v>0.1603075690412924</v>
-      </c>
-      <c r="T8">
-        <v>0.1603075690412924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H9">
-        <v>3.639883</v>
-      </c>
-      <c r="I9">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J9">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.042025</v>
-      </c>
-      <c r="N9">
-        <v>0.126075</v>
-      </c>
-      <c r="O9">
-        <v>0.06493436260027936</v>
-      </c>
-      <c r="P9">
-        <v>0.06493436260027936</v>
-      </c>
-      <c r="Q9">
-        <v>0.05098869435833333</v>
-      </c>
-      <c r="R9">
-        <v>0.4588982492249999</v>
-      </c>
-      <c r="S9">
-        <v>0.05176556241181097</v>
-      </c>
-      <c r="T9">
-        <v>0.05176556241181096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.639883</v>
-      </c>
-      <c r="I10">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J10">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1823753333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.547126</v>
-      </c>
-      <c r="O10">
-        <v>0.2817947893875903</v>
-      </c>
-      <c r="P10">
-        <v>0.2817947893875903</v>
-      </c>
-      <c r="Q10">
-        <v>0.2212749584731111</v>
-      </c>
-      <c r="R10">
-        <v>1.991474626258</v>
-      </c>
-      <c r="S10">
-        <v>0.2246463224281141</v>
-      </c>
-      <c r="T10">
-        <v>0.2246463224281141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.639883</v>
-      </c>
-      <c r="I11">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J11">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.06937966666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.208139</v>
-      </c>
-      <c r="O11">
-        <v>0.1072010572854217</v>
-      </c>
-      <c r="P11">
-        <v>0.1072010572854217</v>
-      </c>
-      <c r="Q11">
-        <v>0.0841779564152222</v>
-      </c>
-      <c r="R11">
-        <v>0.7576016077369999</v>
-      </c>
-      <c r="S11">
-        <v>0.08546049886838725</v>
-      </c>
-      <c r="T11">
-        <v>0.08546049886838723</v>
+        <v>0.3578701324510509</v>
       </c>
     </row>
   </sheetData>
